--- a/Report 3 ngày/Tiktok 3 ngày.xlsx
+++ b/Report 3 ngày/Tiktok 3 ngày.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="81">
   <si>
     <t>Account name</t>
   </si>
@@ -49,175 +49,205 @@
     <t>Reporting ends</t>
   </si>
   <si>
+    <t>Ecombest_001</t>
+  </si>
+  <si>
     <t>Ecombest_002</t>
   </si>
   <si>
     <t>Ecombest_003</t>
   </si>
   <si>
+    <t>Ecombest_005</t>
+  </si>
+  <si>
+    <t>UK_Ecombest_004</t>
+  </si>
+  <si>
+    <t>ProductSale_Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH638ELE3092WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSale_Mother &amp; Daughters A Bond That Can't Be Broken - Gift For Mom, Mother, Grandma - Personalized Mug_ProductSales_WMAK974NAH3086WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler_ProductSales_TUTR203HAL2126WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Personalized Clear Phone Case_ProductSales_CETR205HAL2132WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSale_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_ProductSales_KSNV774HAL1877WP_280324</t>
+  </si>
+  <si>
+    <t>ProductSale_Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt_ProductSales_TSAK987NAH3105WP_270324</t>
+  </si>
+  <si>
+    <t>ProductSale_Proud Father Of A Few - Funny Gift For Dad, Father, Grandpa - Personalized T Shirt_ProductSales_TSAK982NAH3096WP_270324</t>
+  </si>
+  <si>
+    <t>ViewAds_BrandAds_Mothersday_21/03/24</t>
+  </si>
+  <si>
+    <t>SparkAds_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_TiktokAds_EMTR171HAL2056WP_160324</t>
+  </si>
+  <si>
+    <t>ProductSale_Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case_ProductSales_CETT958CIN2175WP_150324</t>
+  </si>
+  <si>
+    <t>ProductSale_Custom Photo Always Shine In My Heart - Loving, Memorial Gift For Family, Siblings, Friends - Personalized Custom Shaped Photo Light Box_ProductSales_SXHP233HAL1999WP_060324</t>
+  </si>
+  <si>
+    <t>ProductSale_Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt_ProductSales_TSAK987NAH3105WP_020324</t>
+  </si>
+  <si>
     <t>ProductSale_Couple Kissing Style 2 - Anniversary Gift For Couples - Personalized Acrylic Car Hanger_ProductSales_AHBD1019ELE2765WP_010324</t>
   </si>
   <si>
-    <t>ProductSale_Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case_ProductSales_CETT958CIN2175WP_150324</t>
-  </si>
-  <si>
-    <t>ProductSale_Custom Photo Always Shine In My Heart - Loving, Memorial Gift For Family, Siblings, Friends - Personalized Custom Shaped Photo Light Box_ProductSales_SXHP233HAL1999WP_060324</t>
-  </si>
-  <si>
-    <t>ProductSale_Proud Father Of A Few - Funny Gift For Dad, Father, Grandpa - Personalized T Shirt_ProductSales_TSAK982NAH3096WP_270324</t>
-  </si>
-  <si>
     <t>ProductSale_I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized 2-Layered Wooden Plaque With Stand_ProductSales_PSBD1050ELE2906WP_290224</t>
   </si>
   <si>
-    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Personalized Clear Phone Case_ProductSales_CETR205HAL2132WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand_ProductSales_KSNV774HAL1877WP_280324</t>
-  </si>
-  <si>
-    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_ProductSales_EMTR171HAL2056WP_260324</t>
-  </si>
-  <si>
-    <t>SparkAds_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_TiktokAds_EMTR171HAL2056WP_160324</t>
-  </si>
-  <si>
-    <t>ViewAds_BrandAds_Mothersday_21/03/24</t>
-  </si>
-  <si>
     <t>ViewAds_BrandAds_Mothersday_21/02/24</t>
   </si>
   <si>
+    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
+  </si>
+  <si>
     <t>ProductSale_First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - Personalized 2-Layered Wooden Plaque With Stand_ProductSales_PSTA361ELE2901WP_040424</t>
   </si>
   <si>
-    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
-  </si>
-  <si>
-    <t>ProductSale_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Car Hanger_ProductSales_AHTR146HAL1978WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH611ELE2987WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH638ELE3092WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler_ProductSales_TUTR203HAL2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Calendar Custom Photo The Day You Became My Mommy - Gift For Mother, Father - Personalized Aluminum Keychain_ProductSales_LDKK776CIN2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_ProductSales_EMNN423HEL954WP_040424</t>
+    <t>ProductSale_Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt_ProductSales_TSAK987NAH3105WP_290324</t>
+  </si>
+  <si>
+    <t>ProductSale_Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt_ProductSales_TSAK987NAH3105WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSale_No Returns Or Refunds Chibi Grandkids - Funny Gift For Dad, Mom, Grandma, Grandpa - Personalized Mug_ProductSales_WMTR201NAH3247WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSale_Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt_ProductSales_TSVT166HAL1096WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSale_Custom Photo If Found Return To This Guy - Gift For Dad, Father, Grandpa, Golfer, Golf Lover - Personalized Golf Ball_ProductSales_GFTR178NAH3191WP_060424</t>
+  </si>
+  <si>
+    <t>Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle</t>
+  </si>
+  <si>
+    <t>Mother &amp; Daughters A Bond That Can't Be Broken - Gift For Mom, Mother, Grandma - Personalized Mug</t>
+  </si>
+  <si>
+    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler</t>
+  </si>
+  <si>
+    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Personalized Clear Phone Case</t>
+  </si>
+  <si>
+    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand</t>
+  </si>
+  <si>
+    <t>Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Proud Father Of A Few - Funny Gift For Dad, Father, Grandpa - Personalized T Shirt</t>
+  </si>
+  <si>
+    <t>Mothersday</t>
+  </si>
+  <si>
+    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+  </si>
+  <si>
+    <t>Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case</t>
+  </si>
+  <si>
+    <t>Custom Photo Always Shine In My Heart - Loving, Memorial Gift For Family, Siblings, Friends - Personalized Custom Shaped Photo Light Box</t>
   </si>
   <si>
     <t>Couple Kissing Style 2 - Anniversary Gift For Couples - Personalized Acrylic Car Hanger</t>
   </si>
   <si>
-    <t>Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case</t>
-  </si>
-  <si>
-    <t>Custom Photo Always Shine In My Heart - Loving, Memorial Gift For Family, Siblings, Friends - Personalized Custom Shaped Photo Light Box</t>
-  </si>
-  <si>
-    <t>Proud Father Of A Few - Funny Gift For Dad, Father, Grandpa - Personalized T Shirt</t>
-  </si>
-  <si>
     <t>I Miss You I Know - Memorial Gift For Family, Friends, Siblings - Personalized 2-Layered Wooden Plaque With Stand</t>
   </si>
   <si>
-    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Personalized Clear Phone Case</t>
-  </si>
-  <si>
-    <t>Cartoon Bestie - Birthday, Loving Gift For Friend, Sister, Brother - Personalized Acrylic Shaking Stand</t>
-  </si>
-  <si>
-    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
-  </si>
-  <si>
-    <t>Mothersday</t>
+    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque</t>
   </si>
   <si>
     <t>First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - Personalized 2-Layered Wooden Plaque With Stand</t>
   </si>
   <si>
-    <t>A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque</t>
-  </si>
-  <si>
-    <t>Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Car Hanger</t>
-  </si>
-  <si>
-    <t>Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle</t>
-  </si>
-  <si>
-    <t>Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler</t>
-  </si>
-  <si>
-    <t>Calendar Custom Photo The Day You Became My Mommy - Gift For Mother, Father - Personalized Aluminum Keychain</t>
-  </si>
-  <si>
-    <t>Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug</t>
+    <t>No Returns Or Refunds Chibi Grandkids - Funny Gift For Dad, Mom, Grandma, Grandpa - Personalized Mug</t>
+  </si>
+  <si>
+    <t>Dear Mom Great Job We're Awesome Thank You Young - Birthday, Loving Gift For Mother, Grandma, Grandmother - Personalized Custom T Shirt</t>
+  </si>
+  <si>
+    <t>Custom Photo If Found Return To This Guy - Gift For Dad, Father, Grandpa, Golfer, Golf Lover - Personalized Golf Ball</t>
+  </si>
+  <si>
+    <t>ProductSales_WZAH638ELE3092WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSales_WMAK974NAH3086WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSales_TUTR203HAL2126WP_060424</t>
+  </si>
+  <si>
+    <t>ProductSales_CETR205HAL2132WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSales_KSNV774HAL1877WP_280324</t>
+  </si>
+  <si>
+    <t>ProductSales_TSAK987NAH3105WP_270324</t>
+  </si>
+  <si>
+    <t>ProductSales_TSAK982NAH3096WP_270324</t>
+  </si>
+  <si>
+    <t>Mothersday_21/03/24</t>
+  </si>
+  <si>
+    <t>TiktokAds_EMTR171HAL2056WP_160324</t>
+  </si>
+  <si>
+    <t>ProductSales_CETT958CIN2175WP_150324</t>
+  </si>
+  <si>
+    <t>ProductSales_SXHP233HAL1999WP_060324</t>
+  </si>
+  <si>
+    <t>ProductSales_TSAK987NAH3105WP_020324</t>
   </si>
   <si>
     <t>ProductSales_AHBD1019ELE2765WP_010324</t>
   </si>
   <si>
-    <t>ProductSales_CETT958CIN2175WP_150324</t>
-  </si>
-  <si>
-    <t>ProductSales_SXHP233HAL1999WP_060324</t>
-  </si>
-  <si>
-    <t>ProductSales_TSAK982NAH3096WP_270324</t>
-  </si>
-  <si>
     <t>ProductSales_PSBD1050ELE2906WP_290224</t>
   </si>
   <si>
-    <t>ProductSales_CETR205HAL2132WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_KSNV774HAL1877WP_280324</t>
-  </si>
-  <si>
-    <t>ProductSales_EMTR171HAL2056WP_260324</t>
-  </si>
-  <si>
-    <t>TiktokAds_EMTR171HAL2056WP_160324</t>
-  </si>
-  <si>
-    <t>Mothersday_21/03/24</t>
-  </si>
-  <si>
     <t>Mothersday_21/02/24</t>
   </si>
   <si>
+    <t>TiktokAds_HPTR106NAH2899WP_161223</t>
+  </si>
+  <si>
     <t>ProductSales_PSTA361ELE2901WP_040424</t>
   </si>
   <si>
-    <t>TiktokAds_HPTR106NAH2899WP_161223</t>
-  </si>
-  <si>
-    <t>ProductSales_AHTR146HAL1978WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_WZAH611ELE2987WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_WZAH638ELE3092WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_TUTR203HAL2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_LDKK776CIN2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSales_EMNN423HEL954WP_040424</t>
+    <t>ProductSales_TSAK987NAH3105WP_290324</t>
+  </si>
+  <si>
+    <t>ProductSales_TSAK987NAH3105WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSales_WMTR201NAH3247WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSales_TSVT166HAL1096WP_090424</t>
+  </si>
+  <si>
+    <t>ProductSales_GFTR178NAH3191WP_060424</t>
   </si>
   <si>
     <t>USD</t>
@@ -584,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,28 +660,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>139.06</v>
+        <v>152.03</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -665,28 +695,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>179.27</v>
+        <v>197.67</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -700,28 +730,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>119.66</v>
+        <v>289.21</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -732,31 +762,31 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>120.09</v>
+        <v>2537.51</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -767,31 +797,31 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>124.42</v>
+        <v>20.11</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -802,31 +832,31 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79.38</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -837,31 +867,31 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>75.28</v>
+        <v>90.72</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -872,31 +902,31 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.95</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -907,31 +937,31 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>74.78</v>
+        <v>64.95</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -942,31 +972,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>511</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -977,31 +1007,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>58.96</v>
+        <v>113.85</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1015,28 +1045,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>135.5</v>
+        <v>0.09</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1050,28 +1080,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>140.61</v>
+        <v>309.18</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1085,28 +1115,28 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>119.18</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1120,28 +1150,28 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>76.41</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1152,31 +1182,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>92.5</v>
+        <v>122.76</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1187,31 +1217,31 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>71.31999999999999</v>
+        <v>1204.75</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1222,13 +1252,13 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
@@ -1237,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>317.75</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1257,31 +1287,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69.73999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="I20" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1292,36 +1322,141 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57.46</v>
+        <v>1.78</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>70.31999999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>71.37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>107.38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>0</v>
       </c>
     </row>
